--- a/Document/시스템 기획서/DreamCatcher_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="154">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 스폰의 종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제한 스폰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,22 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 스폰 지점은 몬스터를 n개 이상 생성 할 수 없음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 제한 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 무제한 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 웨이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 스폰은 최소 한마리의 몬스터를 생성함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,10 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - 모든 스폰은 재생성 시간을 가짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -607,71 +583,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 1마리씩 소환함.</t>
+    <t>LimitTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 남은시간에 따른 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터의 Level을 확인하고 다음 Level이 없다면 스폰이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 더 이상 배치되는 몬스터가 없다면 스폰이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점에 캐릭터나 몬스터가 있고 겹친다면 생성대상을 옆으로 옴겨줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터를 스폰하는 것은 위쪽(z축)으로 이동될 수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 모두 소환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 랜덤한 위치에 몬스터를 1마리씩 소환함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 스폰후 배치된 몬스터가 더 있다면 4초후 다시 생성함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 남은시간에 따른 스폰 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 데이터의 Level을 확인하고 다음 Level이 없다면 스폰이 종료됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰 지점에 더 이상 배치되는 몬스터가 없다면 스폰이 종료됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰 지점에 캐릭터나 몬스터가 있고 겹친다면 생성대상을 옆으로 옴겨줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터를 스폰하는 것은 위쪽(z축)으로 이동될 수 없음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션마다 다른 재생성 데이터가 필요함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 모두 소환함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰 배치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,79 +866,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="2171700"/>
-          <a:ext cx="3438525" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="76000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>협의 필요</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1013,7 +912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1061,7 +960,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1109,7 +1008,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3093,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3140,10 +3039,10 @@
         <v>43666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -3155,7 +3054,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -3221,112 +3120,112 @@
     </row>
     <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3338,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3361,12 +3260,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3376,59 +3275,28 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3436,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3453,78 +3321,78 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -3536,7 +3404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3545,7 +3413,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
@@ -3558,10 +3426,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="L21" s="14"/>
@@ -3576,20 +3444,20 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -3599,10 +3467,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -3613,10 +3481,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -3627,10 +3495,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -3641,10 +3509,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -3655,7 +3523,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -3669,7 +3537,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -3689,73 +3557,71 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C33" s="24"/>
       <c r="Q33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>158</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G41" s="23"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L45" s="18"/>
       <c r="M45" s="14"/>
@@ -3770,7 +3636,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -3779,7 +3645,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -3788,7 +3654,7 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
@@ -3831,7 +3697,7 @@
     </row>
     <row r="55" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -3992,73 +3858,73 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -4073,7 +3939,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4081,7 +3947,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>3</v>
@@ -4093,10 +3959,10 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="M21"/>
@@ -4109,19 +3975,19 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M23"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -4130,10 +3996,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -4143,10 +4009,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -4156,10 +4022,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -4169,7 +4035,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -4182,7 +4048,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -4195,7 +4061,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -4217,78 +4083,78 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C34" s="24"/>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -4299,14 +4165,14 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4315,7 +4181,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -4330,7 +4196,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46"/>
       <c r="M46"/>
@@ -4339,7 +4205,7 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -4348,7 +4214,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -4369,7 +4235,7 @@
     </row>
     <row r="51" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -4496,73 +4362,73 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -4579,7 +4445,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4588,7 +4454,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>3</v>
@@ -4601,10 +4467,10 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="L21" s="14"/>
@@ -4619,20 +4485,20 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -4642,10 +4508,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -4656,10 +4522,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -4670,10 +4536,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -4684,7 +4550,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -4698,7 +4564,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -4712,7 +4578,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -4734,7 +4600,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E32" s="19"/>
       <c r="L32" s="14"/>
@@ -4742,13 +4608,13 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E33" s="19"/>
       <c r="L33" s="14"/>
@@ -4756,10 +4622,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D34" s="5"/>
       <c r="L34" s="14"/>
@@ -4767,10 +4633,10 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D35" s="5"/>
       <c r="L35" s="14"/>
@@ -4778,10 +4644,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D36" s="5"/>
       <c r="O36"/>
@@ -4794,14 +4660,14 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D38" s="14"/>
       <c r="O38"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="14"/>
@@ -4809,21 +4675,21 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D40" s="14"/>
       <c r="O40"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D41" s="14"/>
       <c r="O41"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D42" s="14"/>
       <c r="O42"/>
@@ -4834,14 +4700,14 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D44" s="14"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D45" s="14"/>
       <c r="O45"/>
@@ -4852,82 +4718,82 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O47"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O48"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O49"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J50" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O50"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O51"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O52"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O53"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J54" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O54"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O55"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J56" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O56"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O57"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O58"/>
     </row>
@@ -4943,21 +4809,21 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -4974,7 +4840,7 @@
     </row>
     <row r="70" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -5083,7 +4949,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -5132,7 +4998,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -5190,7 +5056,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -5248,7 +5114,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>

--- a/Document/시스템 기획서/DreamCatcher_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="161">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,6 +183,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3. 스폰의 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제한 스폰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,6 +263,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  - 스폰 지점은 몬스터를 n개 이상 생성 할 수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 무제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - 스폰은 최소 한마리의 몬스터를 생성함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +288,10 @@
   </si>
   <si>
     <t xml:space="preserve">  - 모든 스폰은 재생성 시간을 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -583,6 +607,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 1마리씩 소환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰후 배치된 몬스터가 더 있다면 4초후 다시 생성함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LimitTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -631,19 +663,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>미션마다 다른 재생성 데이터가 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 모두 소환함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 스폰 배치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰 지점에 랜덤한 위치에 몬스터를 1마리씩 소환함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스폰후 배치된 몬스터가 더 있다면 4초후 다시 생성함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,6 +894,79 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="2171700"/>
+          <a:ext cx="3438525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="76000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>협의 필요</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -912,7 +1013,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -960,7 +1061,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1008,7 +1109,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2992,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3039,10 +3140,10 @@
         <v>43666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -3054,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -3120,112 +3221,112 @@
     </row>
     <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3237,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3260,12 +3361,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3275,28 +3376,59 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3304,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3321,78 +3453,78 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -3404,7 +3536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3413,7 +3545,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
@@ -3426,10 +3558,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="L21" s="14"/>
@@ -3444,20 +3576,20 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -3467,10 +3599,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -3481,10 +3613,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -3495,10 +3627,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -3509,10 +3641,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -3523,7 +3655,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -3537,7 +3669,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -3557,71 +3689,73 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C33" s="24"/>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q35" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="23"/>
+        <v>145</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L45" s="18"/>
       <c r="M45" s="14"/>
@@ -3636,7 +3770,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -3645,7 +3779,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -3654,7 +3788,7 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
@@ -3697,7 +3831,7 @@
     </row>
     <row r="55" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -3858,73 +3992,73 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -3939,7 +4073,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3947,7 +4081,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>3</v>
@@ -3959,10 +4093,10 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="M21"/>
@@ -3975,19 +4109,19 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M23"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -3996,10 +4130,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -4009,10 +4143,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -4022,10 +4156,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -4035,7 +4169,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -4048,7 +4182,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -4061,7 +4195,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -4083,78 +4217,78 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C34" s="24"/>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -4165,14 +4299,14 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -4181,7 +4315,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -4196,7 +4330,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L46"/>
       <c r="M46"/>
@@ -4205,7 +4339,7 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -4214,7 +4348,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -4235,7 +4369,7 @@
     </row>
     <row r="51" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -4362,73 +4496,73 @@
   <sheetData>
     <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -4445,7 +4579,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4454,7 +4588,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>3</v>
@@ -4467,10 +4601,10 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="L21" s="14"/>
@@ -4485,20 +4619,20 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4</v>
@@ -4508,10 +4642,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -4522,10 +4656,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -4536,10 +4670,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
@@ -4550,7 +4684,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -4564,7 +4698,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -4578,7 +4712,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>24</v>
@@ -4600,7 +4734,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E32" s="19"/>
       <c r="L32" s="14"/>
@@ -4608,13 +4742,13 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E33" s="19"/>
       <c r="L33" s="14"/>
@@ -4622,10 +4756,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D34" s="5"/>
       <c r="L34" s="14"/>
@@ -4633,10 +4767,10 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D35" s="5"/>
       <c r="L35" s="14"/>
@@ -4644,10 +4778,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D36" s="5"/>
       <c r="O36"/>
@@ -4660,14 +4794,14 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D38" s="14"/>
       <c r="O38"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="14"/>
@@ -4675,21 +4809,21 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D40" s="14"/>
       <c r="O40"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D41" s="14"/>
       <c r="O41"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D42" s="14"/>
       <c r="O42"/>
@@ -4700,14 +4834,14 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D44" s="14"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D45" s="14"/>
       <c r="O45"/>
@@ -4718,82 +4852,82 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O47"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O48"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="O49"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J50" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O50"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O51"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J52" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O52"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O53"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O54"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O55"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J56" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O56"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O57"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J58" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O58"/>
     </row>
@@ -4809,21 +4943,21 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -4840,7 +4974,7 @@
     </row>
     <row r="70" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4949,7 +5083,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -4998,7 +5132,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -5056,7 +5190,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -5114,7 +5248,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
